--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Molinos/Jacques_Molinos.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Molinos/Jacques_Molinos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Molinos (né à Lyon le 4 juin 1743[Note 1] et mort à Paris le 20 février 1831) est un architecte français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Molinos étudia à l'Académie royale d'architecture sous la direction de Jacques-François Blondel. Entré en 1813, il fut admis en 2ème Classe 
 En 1775, il construisit la maison Jacquin au Pré-Saint-Gervais. Puis, de 1780 à 1784, il se vit confier par le marquis Louis-Zacharie de Vasan le chantier du château de Puisieux près de Villers-Cotterêts (détruit).
@@ -519,10 +533,10 @@
 En 1785, Legrand et lui visitèrent l'Italie. De retour à Paris, ils construisirent pour eux-mêmes en 1789 deux immeubles rue Saint-Florentin où ils installèrent un « musée de l'ordre dorique ».
 En 1791, Molinos et Legrand avaient imaginé un palais national sur les fondations naissantes de l'église de la Madeleine à Paris, en voulant inclure l'église dans une immense structure destinée à abriter la Convention nationale. La maquette de ce projet resté sans suite est exposée au musée de la Révolution française.
 Molinos et Legrand réaménagèrent également l'hôtel Marbeuf, 31 rue du Faubourg-Saint-Honoré, célèbre pour le raffinement de sa décoration polychrome dans le goût de l'Antiquité (détruit), et construisirent le théâtre Feydeau pour la Comédie-Italienne (1789-1790, détruit) et la mairie d'Auteuil, en forme de temple grec (1792).
-Pour Jacques-Henri Bernardin de Saint-Pierre, dernier intendant du Jardin des Plantes, Jacques Molinos édifia des abris pour la nouvelle ménagerie, tour à tour en forme de huttes primitives et de pavillons néoclassiques (1792-1793). Nommé architecte du Muséum national d'histoire naturelle en 1794, il modifia le Grand amphithéâtre construit par Edme Verniquet en agrandissant la salle et en ajoutant des pavillons semi-circulaires à usage de laboratoires (1794) et édifia la rotonde des éléphants (1801-1802)[1].
+Pour Jacques-Henri Bernardin de Saint-Pierre, dernier intendant du Jardin des Plantes, Jacques Molinos édifia des abris pour la nouvelle ménagerie, tour à tour en forme de huttes primitives et de pavillons néoclassiques (1792-1793). Nommé architecte du Muséum national d'histoire naturelle en 1794, il modifia le Grand amphithéâtre construit par Edme Verniquet en agrandissant la salle et en ajoutant des pavillons semi-circulaires à usage de laboratoires (1794) et édifia la rotonde des éléphants (1801-1802).
 Il fut inspecteur des bâtiments civils du département de la Seine et architecte de la ville de Paris (1817). Il acheva la construction des pavillons d'octroi de l'enceinte des fermiers généraux (1804-1830), notamment le bâtiment d'octroi de la porte de Charenton  (1822) et la Barrière de Rochechouart (1826). Il construisit la fontaine Valhubert, la fontaine du Marché-Saint-Honoré (1809, détruite). Il construisit la Halle au Vieux linge, composée de quatre pavillons autour du Carreau du Temple (1810-1811, détruite).
 En 1827, il commença la construction de l'église Saint Jean-Baptiste à Neuilly-sur-Seine, qui fut achevée par son fils Auguste Isidore Molinos (1795-1850).
-Il fut nommé chevalier de la Légion d'Honneur en 1814[2]. Il fut élu membre de l'Académie des beaux-arts en 1829.
+Il fut nommé chevalier de la Légion d'Honneur en 1814. Il fut élu membre de l'Académie des beaux-arts en 1829.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Principales réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1789 : immeubles no 6 et no 8 rue Saint-Florentin, Paris .
 1801-1802 : Rotonde des éléphants du Jardin des Plantes de Paris .</t>
